--- a/HumanResources.Web/wwwroot/uploads/حضور وانصراف (1) - Copy.xlsx
+++ b/HumanResources.Web/wwwroot/uploads/حضور وانصراف (1) - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAFE5AA-C18B-4119-84E9-D41C0629F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E36F3B-E528-42A9-8D31-351D9E364356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,29 +565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45645.339780092596</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F11">
-    <sortCondition ref="A1:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F10">
+    <sortCondition ref="A1:A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HumanResources.Web/wwwroot/uploads/حضور وانصراف (1) - Copy.xlsx
+++ b/HumanResources.Web/wwwroot/uploads/حضور وانصراف (1) - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E36F3B-E528-42A9-8D31-351D9E364356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8854497-04DE-4E55-B7C4-813AC3653ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,10 +363,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2">
-        <v>45640.341736111113</v>
+        <v>45640.330601851849</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -387,10 +383,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>45640.720046296294</v>
+        <v>45640.795335648145</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -407,10 +403,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>45641.353750000002</v>
+        <v>45641.332546296297</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -427,10 +423,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>45641.709131944444</v>
+        <v>45641.792048611111</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -447,10 +443,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>45642.33898148148</v>
+        <v>45642.329699074071</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -467,10 +463,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>45642.709872685184</v>
+        <v>45643.33929398148</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -487,16 +483,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45643.344652777778</v>
+        <v>45643.790972222225</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -507,10 +503,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>45643.770497685182</v>
+        <v>45644.338414351849</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -527,16 +523,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>45644.337673611109</v>
+        <v>45644.713125000002</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -547,16 +543,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>45644.792025462964</v>
+        <v>45645.338865740741</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
